--- a/artfynd/A 23039-2023.xlsx
+++ b/artfynd/A 23039-2023.xlsx
@@ -4112,10 +4112,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111564905</v>
+        <v>111564898</v>
       </c>
       <c r="B30" t="n">
-        <v>57578</v>
+        <v>95532</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4128,40 +4128,31 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>208250</v>
+        <v>221945</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Åkergroda</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Rana arvalis</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Nilsson, 1842</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>årsunge</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4169,10 +4160,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>561262.631747936</v>
+        <v>561231.5123860433</v>
       </c>
       <c r="R30" t="n">
-        <v>6622544.013810508</v>
+        <v>6622624.185033713</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4242,10 +4233,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111564898</v>
+        <v>111565017</v>
       </c>
       <c r="B31" t="n">
-        <v>95532</v>
+        <v>57578</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4258,31 +4249,36 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>221945</v>
+        <v>208250</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Åkergroda</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Rana arvalis</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t>Nilsson, 1842</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>årsunge</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -4290,10 +4286,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>561231.5123860433</v>
+        <v>561130.0283522989</v>
       </c>
       <c r="R31" t="n">
-        <v>6622624.185033713</v>
+        <v>6622683.03052416</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4363,10 +4359,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111565017</v>
+        <v>111564885</v>
       </c>
       <c r="B32" t="n">
-        <v>57578</v>
+        <v>103288</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4379,36 +4375,39 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>208250</v>
+        <v>221144</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Åkergroda</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Rana arvalis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Nilsson, 1842</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>årsunge</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4416,10 +4415,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>561130.0283522989</v>
+        <v>561241.7941118333</v>
       </c>
       <c r="R32" t="n">
-        <v>6622683.03052416</v>
+        <v>6622674.779475109</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4489,7 +4488,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111565033</v>
+        <v>111565024</v>
       </c>
       <c r="B33" t="n">
         <v>103288</v>
@@ -4545,10 +4544,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>561151.5115810917</v>
+        <v>561149.6074341368</v>
       </c>
       <c r="R33" t="n">
-        <v>6622728.260846013</v>
+        <v>6622721.170183762</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4618,7 +4617,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111565024</v>
+        <v>111565033</v>
       </c>
       <c r="B34" t="n">
         <v>103288</v>
@@ -4674,10 +4673,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>561149.6074341368</v>
+        <v>561151.5115810917</v>
       </c>
       <c r="R34" t="n">
-        <v>6622721.170183762</v>
+        <v>6622728.260846013</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4747,10 +4746,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111564885</v>
+        <v>111564905</v>
       </c>
       <c r="B35" t="n">
-        <v>103288</v>
+        <v>57578</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4763,39 +4762,40 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>221144</v>
+        <v>208250</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Åkergroda</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Rana arvalis</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Nilsson, 1842</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>ex.</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>årsunge</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -4803,10 +4803,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>561241.7941118333</v>
+        <v>561262.631747936</v>
       </c>
       <c r="R35" t="n">
-        <v>6622674.779475109</v>
+        <v>6622544.013810508</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>

--- a/artfynd/A 23039-2023.xlsx
+++ b/artfynd/A 23039-2023.xlsx
@@ -4233,10 +4233,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111565017</v>
+        <v>111565033</v>
       </c>
       <c r="B31" t="n">
-        <v>57578</v>
+        <v>103288</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4249,36 +4249,39 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>208250</v>
+        <v>221144</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Åkergroda</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Rana arvalis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Nilsson, 1842</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>årsunge</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -4286,10 +4289,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>561130.0283522989</v>
+        <v>561151.5115810917</v>
       </c>
       <c r="R31" t="n">
-        <v>6622683.03052416</v>
+        <v>6622728.260846013</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4359,7 +4362,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111564885</v>
+        <v>111565024</v>
       </c>
       <c r="B32" t="n">
         <v>103288</v>
@@ -4394,7 +4397,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -4415,10 +4418,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>561241.7941118333</v>
+        <v>561149.6074341368</v>
       </c>
       <c r="R32" t="n">
-        <v>6622674.779475109</v>
+        <v>6622721.170183762</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4488,10 +4491,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111565024</v>
+        <v>111565017</v>
       </c>
       <c r="B33" t="n">
-        <v>103288</v>
+        <v>57578</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4504,39 +4507,36 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>221144</v>
+        <v>208250</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Åkergroda</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Rana arvalis</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Nilsson, 1842</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>årsunge</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -4544,10 +4544,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>561149.6074341368</v>
+        <v>561130.0283522989</v>
       </c>
       <c r="R33" t="n">
-        <v>6622721.170183762</v>
+        <v>6622683.03052416</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4617,10 +4617,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111565033</v>
+        <v>111564905</v>
       </c>
       <c r="B34" t="n">
-        <v>103288</v>
+        <v>57578</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4633,39 +4633,40 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>221144</v>
+        <v>208250</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Åkergroda</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Rana arvalis</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Nilsson, 1842</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>ex.</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>årsunge</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
@@ -4673,10 +4674,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>561151.5115810917</v>
+        <v>561262.631747936</v>
       </c>
       <c r="R34" t="n">
-        <v>6622728.260846013</v>
+        <v>6622544.013810508</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4746,10 +4747,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111564905</v>
+        <v>111564885</v>
       </c>
       <c r="B35" t="n">
-        <v>57578</v>
+        <v>103288</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4762,40 +4763,39 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>208250</v>
+        <v>221144</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Åkergroda</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Rana arvalis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Nilsson, 1842</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>ex.</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>årsunge</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -4803,10 +4803,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>561262.631747936</v>
+        <v>561241.7941118333</v>
       </c>
       <c r="R35" t="n">
-        <v>6622544.013810508</v>
+        <v>6622674.779475109</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>

--- a/artfynd/A 23039-2023.xlsx
+++ b/artfynd/A 23039-2023.xlsx
@@ -4112,10 +4112,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111564898</v>
+        <v>111565033</v>
       </c>
       <c r="B30" t="n">
-        <v>95532</v>
+        <v>103288</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4128,25 +4128,33 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>221945</v>
+        <v>221144</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>fullt utvecklade blad</t>
@@ -4160,10 +4168,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>561231.5123860433</v>
+        <v>561151.5115810917</v>
       </c>
       <c r="R30" t="n">
-        <v>6622624.185033713</v>
+        <v>6622728.260846013</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4233,10 +4241,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111565033</v>
+        <v>111564905</v>
       </c>
       <c r="B31" t="n">
-        <v>103288</v>
+        <v>57578</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4249,39 +4257,40 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>221144</v>
+        <v>208250</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Åkergroda</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Rana arvalis</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Nilsson, 1842</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>ex.</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>årsunge</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -4289,10 +4298,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>561151.5115810917</v>
+        <v>561262.631747936</v>
       </c>
       <c r="R31" t="n">
-        <v>6622728.260846013</v>
+        <v>6622544.013810508</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4362,10 +4371,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111565024</v>
+        <v>111565017</v>
       </c>
       <c r="B32" t="n">
-        <v>103288</v>
+        <v>57578</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4378,39 +4387,36 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>221144</v>
+        <v>208250</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Åkergroda</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Rana arvalis</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Nilsson, 1842</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>årsunge</t>
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4418,10 +4424,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>561149.6074341368</v>
+        <v>561130.0283522989</v>
       </c>
       <c r="R32" t="n">
-        <v>6622721.170183762</v>
+        <v>6622683.03052416</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4491,10 +4497,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111565017</v>
+        <v>111564885</v>
       </c>
       <c r="B33" t="n">
-        <v>57578</v>
+        <v>103288</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4507,36 +4513,39 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>208250</v>
+        <v>221144</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Åkergroda</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Rana arvalis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Nilsson, 1842</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>årsunge</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -4544,10 +4553,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>561130.0283522989</v>
+        <v>561241.7941118333</v>
       </c>
       <c r="R33" t="n">
-        <v>6622683.03052416</v>
+        <v>6622674.779475109</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4617,10 +4626,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111564905</v>
+        <v>111565024</v>
       </c>
       <c r="B34" t="n">
-        <v>57578</v>
+        <v>103288</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4633,40 +4642,39 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>208250</v>
+        <v>221144</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Åkergroda</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Rana arvalis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Nilsson, 1842</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>ex.</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>årsunge</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
@@ -4674,10 +4682,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>561262.631747936</v>
+        <v>561149.6074341368</v>
       </c>
       <c r="R34" t="n">
-        <v>6622544.013810508</v>
+        <v>6622721.170183762</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4747,10 +4755,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111564885</v>
+        <v>111564898</v>
       </c>
       <c r="B35" t="n">
-        <v>103288</v>
+        <v>95532</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4763,33 +4771,25 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>221144</v>
+        <v>221945</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>fullt utvecklade blad</t>
@@ -4803,10 +4803,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>561241.7941118333</v>
+        <v>561231.5123860433</v>
       </c>
       <c r="R35" t="n">
-        <v>6622674.779475109</v>
+        <v>6622624.185033713</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>

--- a/artfynd/A 23039-2023.xlsx
+++ b/artfynd/A 23039-2023.xlsx
@@ -4112,10 +4112,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111565033</v>
+        <v>111564905</v>
       </c>
       <c r="B30" t="n">
-        <v>103288</v>
+        <v>57578</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4128,39 +4128,40 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>221144</v>
+        <v>208250</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Åkergroda</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Rana arvalis</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Nilsson, 1842</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>ex.</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>årsunge</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4168,10 +4169,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>561151.5115810917</v>
+        <v>561262.631747936</v>
       </c>
       <c r="R30" t="n">
-        <v>6622728.260846013</v>
+        <v>6622544.013810508</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4241,10 +4242,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111564905</v>
+        <v>111565033</v>
       </c>
       <c r="B31" t="n">
-        <v>57578</v>
+        <v>103288</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4257,40 +4258,39 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>208250</v>
+        <v>221144</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Åkergroda</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Rana arvalis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Nilsson, 1842</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>ex.</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>årsunge</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -4298,10 +4298,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>561262.631747936</v>
+        <v>561151.5115810917</v>
       </c>
       <c r="R31" t="n">
-        <v>6622544.013810508</v>
+        <v>6622728.260846013</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4497,10 +4497,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111564885</v>
+        <v>111564898</v>
       </c>
       <c r="B33" t="n">
-        <v>103288</v>
+        <v>95532</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4513,33 +4513,25 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>221144</v>
+        <v>221945</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>fullt utvecklade blad</t>
@@ -4553,10 +4545,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>561241.7941118333</v>
+        <v>561231.5123860433</v>
       </c>
       <c r="R33" t="n">
-        <v>6622674.779475109</v>
+        <v>6622624.185033713</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4626,7 +4618,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111565024</v>
+        <v>111564885</v>
       </c>
       <c r="B34" t="n">
         <v>103288</v>
@@ -4661,7 +4653,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4682,10 +4674,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>561149.6074341368</v>
+        <v>561241.7941118333</v>
       </c>
       <c r="R34" t="n">
-        <v>6622721.170183762</v>
+        <v>6622674.779475109</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4755,10 +4747,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111564898</v>
+        <v>111565024</v>
       </c>
       <c r="B35" t="n">
-        <v>95532</v>
+        <v>103288</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4771,25 +4763,33 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>221945</v>
+        <v>221144</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>fullt utvecklade blad</t>
@@ -4803,10 +4803,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>561231.5123860433</v>
+        <v>561149.6074341368</v>
       </c>
       <c r="R35" t="n">
-        <v>6622624.185033713</v>
+        <v>6622721.170183762</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>

--- a/artfynd/A 23039-2023.xlsx
+++ b/artfynd/A 23039-2023.xlsx
@@ -4112,10 +4112,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111564905</v>
+        <v>111564898</v>
       </c>
       <c r="B30" t="n">
-        <v>57578</v>
+        <v>95532</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4128,40 +4128,31 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>208250</v>
+        <v>221945</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Åkergroda</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Rana arvalis</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Nilsson, 1842</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>årsunge</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4169,10 +4160,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>561262.631747936</v>
+        <v>561231.5123860433</v>
       </c>
       <c r="R30" t="n">
-        <v>6622544.013810508</v>
+        <v>6622624.185033713</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4242,10 +4233,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111565033</v>
+        <v>111564905</v>
       </c>
       <c r="B31" t="n">
-        <v>103288</v>
+        <v>57578</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4258,39 +4249,40 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>221144</v>
+        <v>208250</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Åkergroda</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Rana arvalis</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Nilsson, 1842</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>ex.</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>årsunge</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -4298,10 +4290,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>561151.5115810917</v>
+        <v>561262.631747936</v>
       </c>
       <c r="R31" t="n">
-        <v>6622728.260846013</v>
+        <v>6622544.013810508</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4371,10 +4363,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111565017</v>
+        <v>111564885</v>
       </c>
       <c r="B32" t="n">
-        <v>57578</v>
+        <v>103288</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4387,36 +4379,39 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>208250</v>
+        <v>221144</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Åkergroda</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Rana arvalis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Nilsson, 1842</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>årsunge</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4424,10 +4419,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>561130.0283522989</v>
+        <v>561241.7941118333</v>
       </c>
       <c r="R32" t="n">
-        <v>6622683.03052416</v>
+        <v>6622674.779475109</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4497,10 +4492,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111564898</v>
+        <v>111565024</v>
       </c>
       <c r="B33" t="n">
-        <v>95532</v>
+        <v>103288</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4513,25 +4508,33 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>221945</v>
+        <v>221144</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>fullt utvecklade blad</t>
@@ -4545,10 +4548,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>561231.5123860433</v>
+        <v>561149.6074341368</v>
       </c>
       <c r="R33" t="n">
-        <v>6622624.185033713</v>
+        <v>6622721.170183762</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4618,10 +4621,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111564885</v>
+        <v>111565017</v>
       </c>
       <c r="B34" t="n">
-        <v>103288</v>
+        <v>57578</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4634,39 +4637,36 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>221144</v>
+        <v>208250</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Åkergroda</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Rana arvalis</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Nilsson, 1842</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>årsunge</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
@@ -4674,10 +4674,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>561241.7941118333</v>
+        <v>561130.0283522989</v>
       </c>
       <c r="R34" t="n">
-        <v>6622674.779475109</v>
+        <v>6622683.03052416</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111565024</v>
+        <v>111565033</v>
       </c>
       <c r="B35" t="n">
         <v>103288</v>
@@ -4803,10 +4803,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>561149.6074341368</v>
+        <v>561151.5115810917</v>
       </c>
       <c r="R35" t="n">
-        <v>6622721.170183762</v>
+        <v>6622728.260846013</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>

--- a/artfynd/A 23039-2023.xlsx
+++ b/artfynd/A 23039-2023.xlsx
@@ -4112,10 +4112,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111564898</v>
+        <v>111565024</v>
       </c>
       <c r="B30" t="n">
-        <v>95532</v>
+        <v>103288</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4128,25 +4128,33 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>221945</v>
+        <v>221144</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>fullt utvecklade blad</t>
@@ -4160,10 +4168,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>561231.5123860433</v>
+        <v>561149.6074341368</v>
       </c>
       <c r="R30" t="n">
-        <v>6622624.185033713</v>
+        <v>6622721.170183762</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4233,10 +4241,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111564905</v>
+        <v>111565033</v>
       </c>
       <c r="B31" t="n">
-        <v>57578</v>
+        <v>103288</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4249,40 +4257,39 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>208250</v>
+        <v>221144</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Åkergroda</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Rana arvalis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Nilsson, 1842</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>ex.</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>årsunge</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -4290,10 +4297,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>561262.631747936</v>
+        <v>561151.5115810917</v>
       </c>
       <c r="R31" t="n">
-        <v>6622544.013810508</v>
+        <v>6622728.260846013</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4363,10 +4370,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111564885</v>
+        <v>111565017</v>
       </c>
       <c r="B32" t="n">
-        <v>103288</v>
+        <v>57578</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4379,39 +4386,36 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>221144</v>
+        <v>208250</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Åkergroda</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Rana arvalis</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Nilsson, 1842</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>årsunge</t>
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4419,10 +4423,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>561241.7941118333</v>
+        <v>561130.0283522989</v>
       </c>
       <c r="R32" t="n">
-        <v>6622674.779475109</v>
+        <v>6622683.03052416</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4492,7 +4496,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111565024</v>
+        <v>111564885</v>
       </c>
       <c r="B33" t="n">
         <v>103288</v>
@@ -4527,7 +4531,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4548,10 +4552,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>561149.6074341368</v>
+        <v>561241.7941118333</v>
       </c>
       <c r="R33" t="n">
-        <v>6622721.170183762</v>
+        <v>6622674.779475109</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4621,10 +4625,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111565017</v>
+        <v>111564898</v>
       </c>
       <c r="B34" t="n">
-        <v>57578</v>
+        <v>95532</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4637,36 +4641,31 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>208250</v>
+        <v>221945</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Åkergroda</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Rana arvalis</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Nilsson, 1842</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>årsunge</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
@@ -4674,10 +4673,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>561130.0283522989</v>
+        <v>561231.5123860433</v>
       </c>
       <c r="R34" t="n">
-        <v>6622683.03052416</v>
+        <v>6622624.185033713</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4747,10 +4746,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111565033</v>
+        <v>111564905</v>
       </c>
       <c r="B35" t="n">
-        <v>103288</v>
+        <v>57578</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4763,39 +4762,40 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>221144</v>
+        <v>208250</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Åkergroda</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Rana arvalis</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Nilsson, 1842</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>ex.</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>årsunge</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -4803,10 +4803,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>561151.5115810917</v>
+        <v>561262.631747936</v>
       </c>
       <c r="R35" t="n">
-        <v>6622728.260846013</v>
+        <v>6622544.013810508</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>

--- a/artfynd/A 23039-2023.xlsx
+++ b/artfynd/A 23039-2023.xlsx
@@ -4112,10 +4112,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111565024</v>
+        <v>111565017</v>
       </c>
       <c r="B30" t="n">
-        <v>103288</v>
+        <v>57578</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4128,39 +4128,36 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>221144</v>
+        <v>208250</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Åkergroda</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Rana arvalis</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Nilsson, 1842</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>årsunge</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4168,10 +4165,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>561149.6074341368</v>
+        <v>561130.0283522989</v>
       </c>
       <c r="R30" t="n">
-        <v>6622721.170183762</v>
+        <v>6622683.03052416</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4370,10 +4367,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111565017</v>
+        <v>111564898</v>
       </c>
       <c r="B32" t="n">
-        <v>57578</v>
+        <v>95532</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4386,36 +4383,31 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>208250</v>
+        <v>221945</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Åkergroda</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Rana arvalis</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Nilsson, 1842</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>årsunge</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4423,10 +4415,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>561130.0283522989</v>
+        <v>561231.5123860433</v>
       </c>
       <c r="R32" t="n">
-        <v>6622683.03052416</v>
+        <v>6622624.185033713</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4496,10 +4488,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111564885</v>
+        <v>111564905</v>
       </c>
       <c r="B33" t="n">
-        <v>103288</v>
+        <v>57578</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4512,39 +4504,40 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>221144</v>
+        <v>208250</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Åkergroda</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Rana arvalis</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Nilsson, 1842</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>ex.</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>årsunge</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -4552,10 +4545,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>561241.7941118333</v>
+        <v>561262.631747936</v>
       </c>
       <c r="R33" t="n">
-        <v>6622674.779475109</v>
+        <v>6622544.013810508</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4625,10 +4618,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111564898</v>
+        <v>111564885</v>
       </c>
       <c r="B34" t="n">
-        <v>95532</v>
+        <v>103288</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4641,25 +4634,33 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>221945</v>
+        <v>221144</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>fullt utvecklade blad</t>
@@ -4673,10 +4674,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>561231.5123860433</v>
+        <v>561241.7941118333</v>
       </c>
       <c r="R34" t="n">
-        <v>6622624.185033713</v>
+        <v>6622674.779475109</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4746,10 +4747,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111564905</v>
+        <v>111565024</v>
       </c>
       <c r="B35" t="n">
-        <v>57578</v>
+        <v>103288</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4762,40 +4763,39 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>208250</v>
+        <v>221144</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Åkergroda</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Rana arvalis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Nilsson, 1842</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>ex.</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>årsunge</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -4803,10 +4803,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>561262.631747936</v>
+        <v>561149.6074341368</v>
       </c>
       <c r="R35" t="n">
-        <v>6622544.013810508</v>
+        <v>6622721.170183762</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>

--- a/artfynd/A 23039-2023.xlsx
+++ b/artfynd/A 23039-2023.xlsx
@@ -4112,10 +4112,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111565017</v>
+        <v>111564885</v>
       </c>
       <c r="B30" t="n">
-        <v>57578</v>
+        <v>103288</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4128,36 +4128,39 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>208250</v>
+        <v>221144</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Åkergroda</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Rana arvalis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Nilsson, 1842</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>årsunge</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4165,10 +4168,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>561130.0283522989</v>
+        <v>561241.7941118333</v>
       </c>
       <c r="R30" t="n">
-        <v>6622683.03052416</v>
+        <v>6622674.779475109</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4238,10 +4241,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111565033</v>
+        <v>111564905</v>
       </c>
       <c r="B31" t="n">
-        <v>103288</v>
+        <v>57578</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4254,39 +4257,40 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>221144</v>
+        <v>208250</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Åkergroda</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Rana arvalis</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Nilsson, 1842</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>ex.</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>årsunge</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -4294,10 +4298,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>561151.5115810917</v>
+        <v>561262.631747936</v>
       </c>
       <c r="R31" t="n">
-        <v>6622728.260846013</v>
+        <v>6622544.013810508</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4488,10 +4492,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111564905</v>
+        <v>111565024</v>
       </c>
       <c r="B33" t="n">
-        <v>57578</v>
+        <v>103288</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4504,40 +4508,39 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>208250</v>
+        <v>221144</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Åkergroda</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Rana arvalis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Nilsson, 1842</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>ex.</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>årsunge</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -4545,10 +4548,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>561262.631747936</v>
+        <v>561149.6074341368</v>
       </c>
       <c r="R33" t="n">
-        <v>6622544.013810508</v>
+        <v>6622721.170183762</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4618,7 +4621,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111564885</v>
+        <v>111565033</v>
       </c>
       <c r="B34" t="n">
         <v>103288</v>
@@ -4653,7 +4656,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4674,10 +4677,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>561241.7941118333</v>
+        <v>561151.5115810917</v>
       </c>
       <c r="R34" t="n">
-        <v>6622674.779475109</v>
+        <v>6622728.260846013</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4747,10 +4750,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111565024</v>
+        <v>111565017</v>
       </c>
       <c r="B35" t="n">
-        <v>103288</v>
+        <v>57578</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4763,39 +4766,36 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>221144</v>
+        <v>208250</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Åkergroda</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Rana arvalis</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Nilsson, 1842</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>årsunge</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -4803,10 +4803,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>561149.6074341368</v>
+        <v>561130.0283522989</v>
       </c>
       <c r="R35" t="n">
-        <v>6622721.170183762</v>
+        <v>6622683.03052416</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
